--- a/CoinGeckoTop500.xlsx
+++ b/CoinGeckoTop500.xlsx
@@ -488,7 +488,7 @@
         <v>1680451521</v>
       </c>
       <c r="F2" t="n">
-        <v>22210645</v>
+        <v>22246242</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>975316381</v>
       </c>
       <c r="F3" t="n">
-        <v>22718971</v>
+        <v>22717106</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         <v>992464938</v>
       </c>
       <c r="F4" t="n">
-        <v>121007807</v>
+        <v>120995128</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         <v>961715369</v>
       </c>
       <c r="F5" t="n">
-        <v>27275915</v>
+        <v>27182973</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>1074065407</v>
       </c>
       <c r="F6" t="n">
-        <v>31672323</v>
+        <v>31677812</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>943808452</v>
       </c>
       <c r="F7" t="n">
-        <v>7056242</v>
+        <v>7055852</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +644,7 @@
         <v>8423343665</v>
       </c>
       <c r="F8" t="n">
-        <v>144648615</v>
+        <v>144442270</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>943475210</v>
       </c>
       <c r="F9" t="n">
-        <v>129006073</v>
+        <v>129007951</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>1534200974</v>
       </c>
       <c r="F10" t="n">
-        <v>9187754</v>
+        <v>9186497</v>
       </c>
     </row>
     <row r="11">
@@ -722,7 +722,7 @@
         <v>904700171</v>
       </c>
       <c r="F11" t="n">
-        <v>2631844</v>
+        <v>2628765</v>
       </c>
     </row>
     <row r="12">
@@ -748,7 +748,7 @@
         <v>888655598</v>
       </c>
       <c r="F12" t="n">
-        <v>26660625</v>
+        <v>26650099</v>
       </c>
     </row>
     <row r="13">
@@ -774,7 +774,7 @@
         <v>1904606433</v>
       </c>
       <c r="F13" t="n">
-        <v>116590086</v>
+        <v>112355767</v>
       </c>
     </row>
     <row r="14">
@@ -800,7 +800,7 @@
         <v>986371981</v>
       </c>
       <c r="F14" t="n">
-        <v>44344003</v>
+        <v>44334087</v>
       </c>
     </row>
     <row r="15">
@@ -826,7 +826,7 @@
         <v>845212730</v>
       </c>
       <c r="F15" t="n">
-        <v>13037300</v>
+        <v>12873712</v>
       </c>
     </row>
     <row r="16">
@@ -852,7 +852,7 @@
         <v>954605639</v>
       </c>
       <c r="F16" t="n">
-        <v>80122542</v>
+        <v>79998614</v>
       </c>
     </row>
     <row r="17">
@@ -878,7 +878,7 @@
         <v>829914285</v>
       </c>
       <c r="F17" t="n">
-        <v>303634</v>
+        <v>337019</v>
       </c>
     </row>
     <row r="18">
@@ -904,7 +904,7 @@
         <v>913961812</v>
       </c>
       <c r="F18" t="n">
-        <v>107593411</v>
+        <v>107617180</v>
       </c>
     </row>
     <row r="19">
@@ -930,7 +930,7 @@
         <v>1051491892</v>
       </c>
       <c r="F19" t="n">
-        <v>80079903</v>
+        <v>80092571</v>
       </c>
     </row>
     <row r="20">
@@ -956,7 +956,7 @@
         <v>755225328</v>
       </c>
       <c r="F20" t="n">
-        <v>9053081</v>
+        <v>9056938</v>
       </c>
     </row>
     <row r="21">
@@ -982,7 +982,7 @@
         <v>723159216</v>
       </c>
       <c r="F21" t="n">
-        <v>16255961</v>
+        <v>16053907</v>
       </c>
     </row>
     <row r="22">
@@ -1008,7 +1008,7 @@
         <v>720661194</v>
       </c>
       <c r="F22" t="n">
-        <v>72019743</v>
+        <v>71815482</v>
       </c>
     </row>
     <row r="23">
@@ -1034,7 +1034,7 @@
         <v>727532463</v>
       </c>
       <c r="F23" t="n">
-        <v>25578860</v>
+        <v>25585403</v>
       </c>
     </row>
     <row r="24">
@@ -1060,7 +1060,7 @@
         <v>711595655</v>
       </c>
       <c r="F24" t="n">
-        <v>376243405</v>
+        <v>376245469</v>
       </c>
     </row>
     <row r="25">
@@ -1086,7 +1086,7 @@
         <v>698954215</v>
       </c>
       <c r="F25" t="n">
-        <v>62642884</v>
+        <v>62650193</v>
       </c>
     </row>
     <row r="26">
@@ -1112,7 +1112,7 @@
         <v>698695593</v>
       </c>
       <c r="F26" t="n">
-        <v>5216221</v>
+        <v>5216843</v>
       </c>
     </row>
     <row r="27">
@@ -1138,7 +1138,7 @@
         <v>692841854</v>
       </c>
       <c r="F27" t="n">
-        <v>265354800</v>
+        <v>261770296</v>
       </c>
     </row>
     <row r="28">
@@ -1164,7 +1164,7 @@
         <v>686273216</v>
       </c>
       <c r="F28" t="n">
-        <v>23919521</v>
+        <v>23903389</v>
       </c>
     </row>
     <row r="29">
@@ -1190,7 +1190,7 @@
         <v>832919809</v>
       </c>
       <c r="F29" t="n">
-        <v>87612151</v>
+        <v>81878039</v>
       </c>
     </row>
     <row r="30">
@@ -1216,7 +1216,7 @@
         <v>3116635861</v>
       </c>
       <c r="F30" t="n">
-        <v>112121543</v>
+        <v>112013413</v>
       </c>
     </row>
     <row r="31">
@@ -1242,7 +1242,7 @@
         <v>670880333</v>
       </c>
       <c r="F31" t="n">
-        <v>123001271</v>
+        <v>123002494</v>
       </c>
     </row>
     <row r="32">
@@ -1268,7 +1268,7 @@
         <v>839442209</v>
       </c>
       <c r="F32" t="n">
-        <v>25036704</v>
+        <v>24821654</v>
       </c>
     </row>
     <row r="33">
@@ -1294,7 +1294,7 @@
         <v>2187691607</v>
       </c>
       <c r="F33" t="n">
-        <v>42098161</v>
+        <v>42117737</v>
       </c>
     </row>
     <row r="34">
@@ -1320,7 +1320,7 @@
         <v>662549244</v>
       </c>
       <c r="F34" t="n">
-        <v>41855601</v>
+        <v>41782002</v>
       </c>
     </row>
     <row r="35">
@@ -1346,7 +1346,7 @@
         <v>655133787</v>
       </c>
       <c r="F35" t="n">
-        <v>20042466</v>
+        <v>18268091</v>
       </c>
     </row>
     <row r="36">
@@ -1372,7 +1372,7 @@
         <v>670340287</v>
       </c>
       <c r="F36" t="n">
-        <v>49934033</v>
+        <v>49931148</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1398,7 @@
         <v>627798192</v>
       </c>
       <c r="F37" t="n">
-        <v>29719655</v>
+        <v>29740578</v>
       </c>
     </row>
     <row r="38">
@@ -1476,7 +1476,7 @@
         <v>623664893</v>
       </c>
       <c r="F40" t="n">
-        <v>30786672</v>
+        <v>30786040</v>
       </c>
     </row>
     <row r="41">
@@ -1502,7 +1502,7 @@
         <v>609099452</v>
       </c>
       <c r="F41" t="n">
-        <v>27109609</v>
+        <v>27128988</v>
       </c>
     </row>
     <row r="42">
@@ -1528,7 +1528,7 @@
         <v>604282598</v>
       </c>
       <c r="F42" t="n">
-        <v>2480662</v>
+        <v>2480664</v>
       </c>
     </row>
     <row r="43">
@@ -1554,7 +1554,7 @@
         <v>613505889</v>
       </c>
       <c r="F43" t="n">
-        <v>145984008</v>
+        <v>145765105</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1580,7 @@
         <v>786084022</v>
       </c>
       <c r="F44" t="n">
-        <v>23273125</v>
+        <v>23280602</v>
       </c>
     </row>
     <row r="45">
@@ -1606,7 +1606,7 @@
         <v>1660085179</v>
       </c>
       <c r="F45" t="n">
-        <v>51455607</v>
+        <v>51360244</v>
       </c>
     </row>
     <row r="46">
@@ -1658,7 +1658,7 @@
         <v>914158780</v>
       </c>
       <c r="F47" t="n">
-        <v>128181278</v>
+        <v>128044036</v>
       </c>
     </row>
     <row r="48">
@@ -1710,7 +1710,7 @@
         <v>1453859257</v>
       </c>
       <c r="F49" t="n">
-        <v>32184244</v>
+        <v>32188372</v>
       </c>
     </row>
     <row r="50">
@@ -1736,7 +1736,7 @@
         <v>650509131</v>
       </c>
       <c r="F50" t="n">
-        <v>7820004</v>
+        <v>7816694</v>
       </c>
     </row>
     <row r="51">
@@ -1762,7 +1762,7 @@
         <v>516150296</v>
       </c>
       <c r="F51" t="n">
-        <v>7278615</v>
+        <v>7280030</v>
       </c>
     </row>
     <row r="52">
@@ -1788,7 +1788,7 @@
         <v>741323537</v>
       </c>
       <c r="F52" t="n">
-        <v>3042994</v>
+        <v>3043811</v>
       </c>
     </row>
     <row r="53">
@@ -1814,7 +1814,7 @@
         <v>558748965</v>
       </c>
       <c r="F53" t="n">
-        <v>3995948</v>
+        <v>3996280</v>
       </c>
     </row>
     <row r="54">
@@ -1840,7 +1840,7 @@
         <v>819737102</v>
       </c>
       <c r="F54" t="n">
-        <v>17009750</v>
+        <v>16994239</v>
       </c>
     </row>
     <row r="55">
@@ -1866,7 +1866,7 @@
         <v>506797959</v>
       </c>
       <c r="F55" t="n">
-        <v>25458872</v>
+        <v>25430626</v>
       </c>
     </row>
     <row r="56">
@@ -1892,7 +1892,7 @@
         <v>854767960</v>
       </c>
       <c r="F56" t="n">
-        <v>34572087</v>
+        <v>34573947</v>
       </c>
     </row>
     <row r="57">
@@ -1918,7 +1918,7 @@
         <v>586981202</v>
       </c>
       <c r="F57" t="n">
-        <v>75445216</v>
+        <v>75582052</v>
       </c>
     </row>
     <row r="58">
@@ -1944,7 +1944,7 @@
         <v>495258028</v>
       </c>
       <c r="F58" t="n">
-        <v>50705127</v>
+        <v>50738952</v>
       </c>
     </row>
     <row r="59">
@@ -1970,7 +1970,7 @@
         <v>488495243</v>
       </c>
       <c r="F59" t="n">
-        <v>27999822</v>
+        <v>28008451</v>
       </c>
     </row>
     <row r="60">
@@ -1996,7 +1996,7 @@
         <v>1749285630</v>
       </c>
       <c r="F60" t="n">
-        <v>38310359</v>
+        <v>37862005</v>
       </c>
     </row>
     <row r="61">
@@ -2022,7 +2022,7 @@
         <v>476959329</v>
       </c>
       <c r="F61" t="n">
-        <v>433256400</v>
+        <v>433469331</v>
       </c>
     </row>
     <row r="62">
@@ -2048,7 +2048,7 @@
         <v>902311364</v>
       </c>
       <c r="F62" t="n">
-        <v>54081592</v>
+        <v>53659150</v>
       </c>
     </row>
     <row r="63">
@@ -2100,7 +2100,7 @@
         <v>470870440</v>
       </c>
       <c r="F64" t="n">
-        <v>12351986</v>
+        <v>12420315</v>
       </c>
     </row>
     <row r="65">
@@ -2126,7 +2126,7 @@
         <v>466308388</v>
       </c>
       <c r="F65" t="n">
-        <v>26705002</v>
+        <v>26552690</v>
       </c>
     </row>
     <row r="66">
@@ -2152,7 +2152,7 @@
         <v>596665543</v>
       </c>
       <c r="F66" t="n">
-        <v>59555645</v>
+        <v>59601137</v>
       </c>
     </row>
     <row r="67">
@@ -2178,7 +2178,7 @@
         <v>457306561</v>
       </c>
       <c r="F67" t="n">
-        <v>18236979</v>
+        <v>18488697</v>
       </c>
     </row>
     <row r="68">
@@ -2204,7 +2204,7 @@
         <v>656056103</v>
       </c>
       <c r="F68" t="n">
-        <v>79827376</v>
+        <v>79722934</v>
       </c>
     </row>
     <row r="69">
@@ -2230,7 +2230,7 @@
         <v>442974006</v>
       </c>
       <c r="F69" t="n">
-        <v>493816009</v>
+        <v>488221331</v>
       </c>
     </row>
     <row r="70">
@@ -2256,7 +2256,7 @@
         <v>439295052</v>
       </c>
       <c r="F70" t="n">
-        <v>10677288</v>
+        <v>10679007</v>
       </c>
     </row>
     <row r="71">
@@ -2282,7 +2282,7 @@
         <v>435059303</v>
       </c>
       <c r="F71" t="n">
-        <v>1385731</v>
+        <v>1385700</v>
       </c>
     </row>
     <row r="72">
@@ -2308,7 +2308,7 @@
         <v>431847218</v>
       </c>
       <c r="F72" t="n">
-        <v>381427004</v>
+        <v>381472975</v>
       </c>
     </row>
     <row r="73">
@@ -2334,7 +2334,7 @@
         <v>435879452</v>
       </c>
       <c r="F73" t="n">
-        <v>38051738</v>
+        <v>38073908</v>
       </c>
     </row>
     <row r="74">
@@ -2360,7 +2360,7 @@
         <v>424459862</v>
       </c>
       <c r="F74" t="n">
-        <v>31281301</v>
+        <v>27943929</v>
       </c>
     </row>
     <row r="75">
@@ -2386,7 +2386,7 @@
         <v>819236920</v>
       </c>
       <c r="F75" t="n">
-        <v>26688981</v>
+        <v>26674722</v>
       </c>
     </row>
     <row r="76">
@@ -2412,7 +2412,7 @@
         <v>422536571</v>
       </c>
       <c r="F76" t="n">
-        <v>280.4</v>
+        <v>280.43</v>
       </c>
     </row>
     <row r="77">
@@ -2438,7 +2438,7 @@
         <v>414763695</v>
       </c>
       <c r="F77" t="n">
-        <v>23825502</v>
+        <v>23832304</v>
       </c>
     </row>
     <row r="78">
@@ -2464,7 +2464,7 @@
         <v>515272880</v>
       </c>
       <c r="F78" t="n">
-        <v>56425622</v>
+        <v>56420688</v>
       </c>
     </row>
     <row r="79">
@@ -2490,7 +2490,7 @@
         <v>628979329</v>
       </c>
       <c r="F79" t="n">
-        <v>117554065</v>
+        <v>117559459</v>
       </c>
     </row>
     <row r="80">
@@ -2516,7 +2516,7 @@
         <v>407669846</v>
       </c>
       <c r="F80" t="n">
-        <v>64765610</v>
+        <v>64551494</v>
       </c>
     </row>
     <row r="81">
@@ -2620,7 +2620,7 @@
         <v>488922574</v>
       </c>
       <c r="F84" t="n">
-        <v>240552401</v>
+        <v>240734742</v>
       </c>
     </row>
     <row r="85">
@@ -2646,7 +2646,7 @@
         <v>450827229</v>
       </c>
       <c r="F85" t="n">
-        <v>68193585</v>
+        <v>68257379</v>
       </c>
     </row>
     <row r="86">
@@ -2672,7 +2672,7 @@
         <v>399361158</v>
       </c>
       <c r="F86" t="n">
-        <v>35812397</v>
+        <v>35543296</v>
       </c>
     </row>
     <row r="87">
@@ -2698,7 +2698,7 @@
         <v>838331974</v>
       </c>
       <c r="F87" t="n">
-        <v>13330307</v>
+        <v>13322397</v>
       </c>
     </row>
     <row r="88">
@@ -2724,7 +2724,7 @@
         <v>392239518</v>
       </c>
       <c r="F88" t="n">
-        <v>7258206</v>
+        <v>7257826</v>
       </c>
     </row>
     <row r="89">
@@ -2750,7 +2750,7 @@
         <v>2172718219</v>
       </c>
       <c r="F89" t="n">
-        <v>7791742</v>
+        <v>7792765</v>
       </c>
     </row>
     <row r="90">
@@ -2776,7 +2776,7 @@
         <v>386716364</v>
       </c>
       <c r="F90" t="n">
-        <v>101250</v>
+        <v>101262</v>
       </c>
     </row>
     <row r="91">
@@ -2828,7 +2828,7 @@
         <v>384524294</v>
       </c>
       <c r="F92" t="n">
-        <v>4499.33</v>
+        <v>4499.87</v>
       </c>
     </row>
     <row r="93">
@@ -2854,7 +2854,7 @@
         <v>460468062</v>
       </c>
       <c r="F93" t="n">
-        <v>92339745</v>
+        <v>92276754</v>
       </c>
     </row>
     <row r="94">
@@ -2880,7 +2880,7 @@
         <v>4229457197</v>
       </c>
       <c r="F94" t="n">
-        <v>69961</v>
+        <v>69970</v>
       </c>
     </row>
     <row r="95">
@@ -2906,7 +2906,7 @@
         <v>872580976</v>
       </c>
       <c r="F95" t="n">
-        <v>16347126</v>
+        <v>16340536</v>
       </c>
     </row>
     <row r="96">
@@ -2932,7 +2932,7 @@
         <v>464476007</v>
       </c>
       <c r="F96" t="n">
-        <v>1017104</v>
+        <v>1014534</v>
       </c>
     </row>
     <row r="97">
@@ -2958,7 +2958,7 @@
         <v>404766484</v>
       </c>
       <c r="F97" t="n">
-        <v>51909023</v>
+        <v>51914955</v>
       </c>
     </row>
     <row r="98">
@@ -2984,7 +2984,7 @@
         <v>1491093653</v>
       </c>
       <c r="F98" t="n">
-        <v>320135094</v>
+        <v>320276438</v>
       </c>
     </row>
     <row r="99">
@@ -3010,7 +3010,7 @@
         <v>351482040</v>
       </c>
       <c r="F99" t="n">
-        <v>11306673</v>
+        <v>11309138</v>
       </c>
     </row>
     <row r="100">
@@ -3036,7 +3036,7 @@
         <v>346017673</v>
       </c>
       <c r="F100" t="n">
-        <v>29.33</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="101">
@@ -3062,7 +3062,7 @@
         <v>533173192</v>
       </c>
       <c r="F101" t="n">
-        <v>48242331</v>
+        <v>48194584</v>
       </c>
     </row>
     <row r="102">
@@ -3088,7 +3088,7 @@
         <v>437754824</v>
       </c>
       <c r="F102" t="n">
-        <v>14953951</v>
+        <v>14949716</v>
       </c>
     </row>
     <row r="103">
@@ -3114,7 +3114,7 @@
         <v>400652558</v>
       </c>
       <c r="F103" t="n">
-        <v>21430793</v>
+        <v>21416190</v>
       </c>
     </row>
     <row r="104">
@@ -3140,7 +3140,7 @@
         <v>339499944</v>
       </c>
       <c r="F104" t="n">
-        <v>82305021</v>
+        <v>82307003</v>
       </c>
     </row>
     <row r="105">
@@ -3166,7 +3166,7 @@
         <v>401017701</v>
       </c>
       <c r="F105" t="n">
-        <v>13260328</v>
+        <v>13250827</v>
       </c>
     </row>
     <row r="106">
@@ -3192,7 +3192,7 @@
         <v>334749686</v>
       </c>
       <c r="F106" t="n">
-        <v>30295944</v>
+        <v>30271701</v>
       </c>
     </row>
     <row r="107">
@@ -3218,7 +3218,7 @@
         <v>331098630</v>
       </c>
       <c r="F107" t="n">
-        <v>891160</v>
+        <v>891266</v>
       </c>
     </row>
     <row r="108">
@@ -3244,7 +3244,7 @@
         <v>325579576</v>
       </c>
       <c r="F108" t="n">
-        <v>1187873</v>
+        <v>1188015</v>
       </c>
     </row>
     <row r="109">
@@ -3270,7 +3270,7 @@
         <v>322683449</v>
       </c>
       <c r="F109" t="n">
-        <v>9660352</v>
+        <v>9659897</v>
       </c>
     </row>
     <row r="110">
@@ -3296,7 +3296,7 @@
         <v>1321927262</v>
       </c>
       <c r="F110" t="n">
-        <v>82358730</v>
+        <v>82346607</v>
       </c>
     </row>
     <row r="111">
@@ -3322,7 +3322,7 @@
         <v>372874115</v>
       </c>
       <c r="F111" t="n">
-        <v>34855915</v>
+        <v>34877841</v>
       </c>
     </row>
     <row r="112">
@@ -3348,7 +3348,7 @@
         <v>369906908</v>
       </c>
       <c r="F112" t="n">
-        <v>29201934</v>
+        <v>29085862</v>
       </c>
     </row>
     <row r="113">
@@ -3374,7 +3374,7 @@
         <v>315811077</v>
       </c>
       <c r="F113" t="n">
-        <v>4355.26</v>
+        <v>4355.78</v>
       </c>
     </row>
     <row r="114">
@@ -3400,7 +3400,7 @@
         <v>314752645</v>
       </c>
       <c r="F114" t="n">
-        <v>27342706</v>
+        <v>27387249</v>
       </c>
     </row>
     <row r="115">
@@ -3426,7 +3426,7 @@
         <v>311233602</v>
       </c>
       <c r="F115" t="n">
-        <v>19237286</v>
+        <v>19246853</v>
       </c>
     </row>
     <row r="116">
@@ -3452,7 +3452,7 @@
         <v>545279584</v>
       </c>
       <c r="F116" t="n">
-        <v>35369509</v>
+        <v>35351282</v>
       </c>
     </row>
     <row r="117">
@@ -3478,7 +3478,7 @@
         <v>1281955647</v>
       </c>
       <c r="F117" t="n">
-        <v>18395311</v>
+        <v>18364484</v>
       </c>
     </row>
     <row r="118">
@@ -3504,7 +3504,7 @@
         <v>302452566</v>
       </c>
       <c r="F118" t="n">
-        <v>267356</v>
+        <v>267388</v>
       </c>
     </row>
     <row r="119">
@@ -3530,7 +3530,7 @@
         <v>304415307</v>
       </c>
       <c r="F119" t="n">
-        <v>13303368</v>
+        <v>13306501</v>
       </c>
     </row>
     <row r="120">
@@ -3556,7 +3556,7 @@
         <v>300025825</v>
       </c>
       <c r="F120" t="n">
-        <v>86693758</v>
+        <v>86590621</v>
       </c>
     </row>
     <row r="121">
@@ -3582,7 +3582,7 @@
         <v>297702134</v>
       </c>
       <c r="F121" t="n">
-        <v>27446870</v>
+        <v>27444103</v>
       </c>
     </row>
     <row r="122">
@@ -3608,7 +3608,7 @@
         <v>282418256</v>
       </c>
       <c r="F122" t="n">
-        <v>160902310</v>
+        <v>160946119</v>
       </c>
     </row>
     <row r="123">
@@ -3634,7 +3634,7 @@
         <v>392659801</v>
       </c>
       <c r="F123" t="n">
-        <v>44060375</v>
+        <v>44112447</v>
       </c>
     </row>
     <row r="124">
@@ -3660,7 +3660,7 @@
         <v>772558836</v>
       </c>
       <c r="F124" t="n">
-        <v>9336241</v>
+        <v>9335319</v>
       </c>
     </row>
     <row r="125">
@@ -3686,7 +3686,7 @@
         <v>278644179</v>
       </c>
       <c r="F125" t="n">
-        <v>23863948</v>
+        <v>23880083</v>
       </c>
     </row>
     <row r="126">
@@ -3712,7 +3712,7 @@
         <v>275997737</v>
       </c>
       <c r="F126" t="n">
-        <v>14988621</v>
+        <v>14985045</v>
       </c>
     </row>
     <row r="127">
@@ -3738,7 +3738,7 @@
         <v>273661135</v>
       </c>
       <c r="F127" t="n">
-        <v>8361492</v>
+        <v>8354275</v>
       </c>
     </row>
     <row r="128">
@@ -3764,7 +3764,7 @@
         <v>297998632</v>
       </c>
       <c r="F128" t="n">
-        <v>25634628</v>
+        <v>25630138</v>
       </c>
     </row>
     <row r="129">
@@ -3790,7 +3790,7 @@
         <v>1366602794</v>
       </c>
       <c r="F129" t="n">
-        <v>57162343</v>
+        <v>57769513</v>
       </c>
     </row>
     <row r="130">
@@ -3816,7 +3816,7 @@
         <v>1902622847</v>
       </c>
       <c r="F130" t="n">
-        <v>39872183</v>
+        <v>39740635</v>
       </c>
     </row>
     <row r="131">
@@ -3842,7 +3842,7 @@
         <v>269007623</v>
       </c>
       <c r="F131" t="n">
-        <v>38078028</v>
+        <v>38086984</v>
       </c>
     </row>
     <row r="132">
@@ -3868,7 +3868,7 @@
         <v>268931132</v>
       </c>
       <c r="F132" t="n">
-        <v>327104</v>
+        <v>327143</v>
       </c>
     </row>
     <row r="133">
@@ -3894,7 +3894,7 @@
         <v>1176594974</v>
       </c>
       <c r="F133" t="n">
-        <v>16414332</v>
+        <v>16416564</v>
       </c>
     </row>
     <row r="134">
@@ -3946,7 +3946,7 @@
         <v>266081378</v>
       </c>
       <c r="F135" t="n">
-        <v>7837977</v>
+        <v>7839100</v>
       </c>
     </row>
     <row r="136">
@@ -3972,7 +3972,7 @@
         <v>261355502</v>
       </c>
       <c r="F136" t="n">
-        <v>13538492</v>
+        <v>13530203</v>
       </c>
     </row>
     <row r="137">
@@ -3998,7 +3998,7 @@
         <v>1633900031</v>
       </c>
       <c r="F137" t="n">
-        <v>71466746</v>
+        <v>71522103</v>
       </c>
     </row>
     <row r="138">
@@ -4024,7 +4024,7 @@
         <v>891430201</v>
       </c>
       <c r="F138" t="n">
-        <v>36534049</v>
+        <v>36280469</v>
       </c>
     </row>
     <row r="139">
@@ -4050,7 +4050,7 @@
         <v>257796465</v>
       </c>
       <c r="F139" t="n">
-        <v>9251738</v>
+        <v>9252274</v>
       </c>
     </row>
     <row r="140">
@@ -4076,7 +4076,7 @@
         <v>1470271163</v>
       </c>
       <c r="F140" t="n">
-        <v>30128399</v>
+        <v>30362737</v>
       </c>
     </row>
     <row r="141">
@@ -4102,7 +4102,7 @@
         <v>259835390</v>
       </c>
       <c r="F141" t="n">
-        <v>1961836</v>
+        <v>1959306</v>
       </c>
     </row>
     <row r="142">
@@ -4128,7 +4128,7 @@
         <v>255846727</v>
       </c>
       <c r="F142" t="n">
-        <v>2811353</v>
+        <v>2795826</v>
       </c>
     </row>
     <row r="143">
@@ -4180,7 +4180,7 @@
         <v>252196440</v>
       </c>
       <c r="F144" t="n">
-        <v>648927</v>
+        <v>649005</v>
       </c>
     </row>
     <row r="145">
@@ -4206,7 +4206,7 @@
         <v>250113462</v>
       </c>
       <c r="F145" t="n">
-        <v>3685496</v>
+        <v>3688429</v>
       </c>
     </row>
     <row r="146">
@@ -4232,7 +4232,7 @@
         <v>249669242</v>
       </c>
       <c r="F146" t="n">
-        <v>167584</v>
+        <v>167604</v>
       </c>
     </row>
     <row r="147">
@@ -4258,7 +4258,7 @@
         <v>248875833</v>
       </c>
       <c r="F147" t="n">
-        <v>2438536</v>
+        <v>2438749</v>
       </c>
     </row>
     <row r="148">
@@ -4310,7 +4310,7 @@
         <v>248233898</v>
       </c>
       <c r="F149" t="n">
-        <v>18448820</v>
+        <v>18453800</v>
       </c>
     </row>
     <row r="150">
@@ -4336,7 +4336,7 @@
         <v>1142254868</v>
       </c>
       <c r="F150" t="n">
-        <v>331358095</v>
+        <v>332508098</v>
       </c>
     </row>
     <row r="151">
@@ -4362,7 +4362,7 @@
         <v>258839897</v>
       </c>
       <c r="F151" t="n">
-        <v>9836909</v>
+        <v>9756962</v>
       </c>
     </row>
     <row r="152">
@@ -4388,7 +4388,7 @@
         <v>312912994</v>
       </c>
       <c r="F152" t="n">
-        <v>32659622</v>
+        <v>32682990</v>
       </c>
     </row>
     <row r="153">
@@ -4414,7 +4414,7 @@
         <v>409873331</v>
       </c>
       <c r="F153" t="n">
-        <v>16050819</v>
+        <v>16059161</v>
       </c>
     </row>
     <row r="154">
@@ -4440,7 +4440,7 @@
         <v>907627731</v>
       </c>
       <c r="F154" t="n">
-        <v>28784147</v>
+        <v>28879533</v>
       </c>
     </row>
     <row r="155">
@@ -4466,7 +4466,7 @@
         <v>229962344</v>
       </c>
       <c r="F155" t="n">
-        <v>22280211</v>
+        <v>22290792</v>
       </c>
     </row>
     <row r="156">
@@ -4492,7 +4492,7 @@
         <v>228302474</v>
       </c>
       <c r="F156" t="n">
-        <v>13182044</v>
+        <v>12611217</v>
       </c>
     </row>
     <row r="157">
@@ -4518,7 +4518,7 @@
         <v>223157668</v>
       </c>
       <c r="F157" t="n">
-        <v>4228344</v>
+        <v>4227641</v>
       </c>
     </row>
     <row r="158">
@@ -4544,7 +4544,7 @@
         <v>222063752</v>
       </c>
       <c r="F158" t="n">
-        <v>18086979</v>
+        <v>18082176</v>
       </c>
     </row>
     <row r="159">
@@ -4570,7 +4570,7 @@
         <v>221126990</v>
       </c>
       <c r="F159" t="n">
-        <v>19371256</v>
+        <v>19372653</v>
       </c>
     </row>
     <row r="160">
@@ -4596,7 +4596,7 @@
         <v>218479234</v>
       </c>
       <c r="F160" t="n">
-        <v>59613280</v>
+        <v>59525854</v>
       </c>
     </row>
     <row r="161">
@@ -4622,7 +4622,7 @@
         <v>217690849</v>
       </c>
       <c r="F161" t="n">
-        <v>39574203</v>
+        <v>39613762</v>
       </c>
     </row>
     <row r="162">
@@ -4648,7 +4648,7 @@
         <v>215944964</v>
       </c>
       <c r="F162" t="n">
-        <v>67021622</v>
+        <v>45912664</v>
       </c>
     </row>
     <row r="163">
@@ -4674,7 +4674,7 @@
         <v>289741647</v>
       </c>
       <c r="F163" t="n">
-        <v>101557074</v>
+        <v>101624051</v>
       </c>
     </row>
     <row r="164">
@@ -4700,7 +4700,7 @@
         <v>318320807</v>
       </c>
       <c r="F164" t="n">
-        <v>12183322</v>
+        <v>12182563</v>
       </c>
     </row>
     <row r="165">
@@ -4726,7 +4726,7 @@
         <v>212699515</v>
       </c>
       <c r="F165" t="n">
-        <v>7053203</v>
+        <v>7047870</v>
       </c>
     </row>
     <row r="166">
@@ -4752,7 +4752,7 @@
         <v>212407134</v>
       </c>
       <c r="F166" t="n">
-        <v>7801223</v>
+        <v>7807044</v>
       </c>
     </row>
     <row r="167">
@@ -4778,7 +4778,7 @@
         <v>210565782</v>
       </c>
       <c r="F167" t="n">
-        <v>60692269</v>
+        <v>60677884</v>
       </c>
     </row>
     <row r="168">
@@ -4804,7 +4804,7 @@
         <v>246019248</v>
       </c>
       <c r="F168" t="n">
-        <v>31051648</v>
+        <v>31079342</v>
       </c>
     </row>
     <row r="169">
@@ -4856,7 +4856,7 @@
         <v>207360631</v>
       </c>
       <c r="F170" t="n">
-        <v>25794043</v>
+        <v>25712958</v>
       </c>
     </row>
     <row r="171">
@@ -4882,7 +4882,7 @@
         <v>205383269</v>
       </c>
       <c r="F171" t="n">
-        <v>18537391</v>
+        <v>18535869</v>
       </c>
     </row>
     <row r="172">
@@ -4908,7 +4908,7 @@
         <v>262473644</v>
       </c>
       <c r="F172" t="n">
-        <v>5169370</v>
+        <v>5160867</v>
       </c>
     </row>
     <row r="173">
@@ -4934,7 +4934,7 @@
         <v>203127620</v>
       </c>
       <c r="F173" t="n">
-        <v>223634</v>
+        <v>224286</v>
       </c>
     </row>
     <row r="174">
@@ -4960,7 +4960,7 @@
         <v>202527541</v>
       </c>
       <c r="F174" t="n">
-        <v>2747685</v>
+        <v>2748116</v>
       </c>
     </row>
     <row r="175">
@@ -4986,7 +4986,7 @@
         <v>508100835</v>
       </c>
       <c r="F175" t="n">
-        <v>17270579</v>
+        <v>17269503</v>
       </c>
     </row>
     <row r="176">
@@ -5012,7 +5012,7 @@
         <v>1790505317</v>
       </c>
       <c r="F176" t="n">
-        <v>37242456</v>
+        <v>37103826</v>
       </c>
     </row>
     <row r="177">
@@ -5038,7 +5038,7 @@
         <v>198263452</v>
       </c>
       <c r="F177" t="n">
-        <v>10352825</v>
+        <v>10360953</v>
       </c>
     </row>
     <row r="178">
@@ -5090,7 +5090,7 @@
         <v>197421590</v>
       </c>
       <c r="F179" t="n">
-        <v>69899752</v>
+        <v>69908052</v>
       </c>
     </row>
     <row r="180">
@@ -5116,7 +5116,7 @@
         <v>497537498</v>
       </c>
       <c r="F180" t="n">
-        <v>1295363</v>
+        <v>1293542</v>
       </c>
     </row>
     <row r="181">
@@ -5142,7 +5142,7 @@
         <v>200828169</v>
       </c>
       <c r="F181" t="n">
-        <v>9586848</v>
+        <v>9561207</v>
       </c>
     </row>
     <row r="182">
@@ -5168,7 +5168,7 @@
         <v>431667251</v>
       </c>
       <c r="F182" t="n">
-        <v>21400436</v>
+        <v>21459442</v>
       </c>
     </row>
     <row r="183">
@@ -5194,7 +5194,7 @@
         <v>193780362</v>
       </c>
       <c r="F183" t="n">
-        <v>9005202</v>
+        <v>9006030</v>
       </c>
     </row>
     <row r="184">
@@ -5220,7 +5220,7 @@
         <v>381726330</v>
       </c>
       <c r="F184" t="n">
-        <v>4904489</v>
+        <v>4900251</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         <v>190555054</v>
       </c>
       <c r="F185" t="n">
-        <v>3862584</v>
+        <v>3867075</v>
       </c>
     </row>
     <row r="186">
@@ -5272,7 +5272,7 @@
         <v>515222324</v>
       </c>
       <c r="F186" t="n">
-        <v>99761032</v>
+        <v>82971988</v>
       </c>
     </row>
     <row r="187">
@@ -5298,7 +5298,7 @@
         <v>265414425</v>
       </c>
       <c r="F187" t="n">
-        <v>11485343</v>
+        <v>11487723</v>
       </c>
     </row>
     <row r="188">
@@ -5324,7 +5324,7 @@
         <v>188202721</v>
       </c>
       <c r="F188" t="n">
-        <v>7926930</v>
+        <v>7272049</v>
       </c>
     </row>
     <row r="189">
@@ -5350,7 +5350,7 @@
         <v>331616516</v>
       </c>
       <c r="F189" t="n">
-        <v>19749154</v>
+        <v>19754102</v>
       </c>
     </row>
     <row r="190">
@@ -5376,7 +5376,7 @@
         <v>185626517</v>
       </c>
       <c r="F190" t="n">
-        <v>15202936</v>
+        <v>15210426</v>
       </c>
     </row>
     <row r="191">
@@ -5402,7 +5402,7 @@
         <v>421440362</v>
       </c>
       <c r="F191" t="n">
-        <v>11446732</v>
+        <v>11452613</v>
       </c>
     </row>
     <row r="192">
@@ -5454,7 +5454,7 @@
         <v>184121885</v>
       </c>
       <c r="F193" t="n">
-        <v>4645617</v>
+        <v>4638328</v>
       </c>
     </row>
     <row r="194">
@@ -5480,7 +5480,7 @@
         <v>183311480</v>
       </c>
       <c r="F194" t="n">
-        <v>63902930</v>
+        <v>63819869</v>
       </c>
     </row>
     <row r="195">
@@ -5506,7 +5506,7 @@
         <v>182702405</v>
       </c>
       <c r="F195" t="n">
-        <v>6392.38</v>
+        <v>6392.68</v>
       </c>
     </row>
     <row r="196">
@@ -5532,7 +5532,7 @@
         <v>182125915</v>
       </c>
       <c r="F196" t="n">
-        <v>87605208</v>
+        <v>87558985</v>
       </c>
     </row>
     <row r="197">
@@ -5558,7 +5558,7 @@
         <v>182004866</v>
       </c>
       <c r="F197" t="n">
-        <v>10064880</v>
+        <v>10066119</v>
       </c>
     </row>
     <row r="198">
@@ -5584,7 +5584,7 @@
         <v>181808373</v>
       </c>
       <c r="F198" t="n">
-        <v>6818216</v>
+        <v>6820889</v>
       </c>
     </row>
     <row r="199">
@@ -5610,7 +5610,7 @@
         <v>181572331</v>
       </c>
       <c r="F199" t="n">
-        <v>14579755</v>
+        <v>14583918</v>
       </c>
     </row>
     <row r="200">
@@ -5636,7 +5636,7 @@
         <v>180917711</v>
       </c>
       <c r="F200" t="n">
-        <v>227949</v>
+        <v>227976</v>
       </c>
     </row>
     <row r="201">
@@ -5662,7 +5662,7 @@
         <v>179516428</v>
       </c>
       <c r="F201" t="n">
-        <v>2980.14</v>
+        <v>5739.56</v>
       </c>
     </row>
     <row r="202">
@@ -5688,7 +5688,7 @@
         <v>178045281</v>
       </c>
       <c r="F202" t="n">
-        <v>16644453</v>
+        <v>16600532</v>
       </c>
     </row>
     <row r="203">
@@ -5740,7 +5740,7 @@
         <v>189684843</v>
       </c>
       <c r="F204" t="n">
-        <v>21140665</v>
+        <v>21207823</v>
       </c>
     </row>
     <row r="205">
@@ -5766,7 +5766,7 @@
         <v>587983051</v>
       </c>
       <c r="F205" t="n">
-        <v>42281</v>
+        <v>42427</v>
       </c>
     </row>
     <row r="206">
@@ -5818,7 +5818,7 @@
         <v>175712291</v>
       </c>
       <c r="F207" t="n">
-        <v>1585069</v>
+        <v>1585262</v>
       </c>
     </row>
     <row r="208">
@@ -5844,7 +5844,7 @@
         <v>174872358</v>
       </c>
       <c r="F208" t="n">
-        <v>14336613</v>
+        <v>14333418</v>
       </c>
     </row>
     <row r="209">
@@ -5870,7 +5870,7 @@
         <v>174218327</v>
       </c>
       <c r="F209" t="n">
-        <v>19441433</v>
+        <v>19436680</v>
       </c>
     </row>
     <row r="210">
@@ -5896,7 +5896,7 @@
         <v>172918791</v>
       </c>
       <c r="F210" t="n">
-        <v>1555428</v>
+        <v>1555175</v>
       </c>
     </row>
     <row r="211">
@@ -5922,7 +5922,7 @@
         <v>172375808</v>
       </c>
       <c r="F211" t="n">
-        <v>35274764</v>
+        <v>35293661</v>
       </c>
     </row>
     <row r="212">
@@ -5948,7 +5948,7 @@
         <v>800798237</v>
       </c>
       <c r="F212" t="n">
-        <v>23072300</v>
+        <v>22782328</v>
       </c>
     </row>
     <row r="213">
@@ -5974,7 +5974,7 @@
         <v>185993505</v>
       </c>
       <c r="F213" t="n">
-        <v>28621633</v>
+        <v>28638602</v>
       </c>
     </row>
     <row r="214">
@@ -6000,7 +6000,7 @@
         <v>666003937</v>
       </c>
       <c r="F214" t="n">
-        <v>77534236</v>
+        <v>77634592</v>
       </c>
     </row>
     <row r="215">
@@ -6052,7 +6052,7 @@
         <v>167286613</v>
       </c>
       <c r="F216" t="n">
-        <v>2640355</v>
+        <v>2640262</v>
       </c>
     </row>
     <row r="217">
@@ -6078,7 +6078,7 @@
         <v>166986711</v>
       </c>
       <c r="F217" t="n">
-        <v>2098963</v>
+        <v>2099665</v>
       </c>
     </row>
     <row r="218">
@@ -6104,7 +6104,7 @@
         <v>166088389</v>
       </c>
       <c r="F218" t="n">
-        <v>21026834</v>
+        <v>21041381</v>
       </c>
     </row>
     <row r="219">
@@ -6130,7 +6130,7 @@
         <v>192291683</v>
       </c>
       <c r="F219" t="n">
-        <v>124019605</v>
+        <v>124025944</v>
       </c>
     </row>
     <row r="220">
@@ -6156,7 +6156,7 @@
         <v>171335367</v>
       </c>
       <c r="F220" t="n">
-        <v>17601204</v>
+        <v>17605332</v>
       </c>
     </row>
     <row r="221">
@@ -6182,7 +6182,7 @@
         <v>182090533</v>
       </c>
       <c r="F221" t="n">
-        <v>10848150</v>
+        <v>10848454</v>
       </c>
     </row>
     <row r="222">
@@ -6208,7 +6208,7 @@
         <v>165198521</v>
       </c>
       <c r="F222" t="n">
-        <v>239258752</v>
+        <v>239598815</v>
       </c>
     </row>
     <row r="223">
@@ -6234,7 +6234,7 @@
         <v>362116724</v>
       </c>
       <c r="F223" t="n">
-        <v>58229</v>
+        <v>58228</v>
       </c>
     </row>
     <row r="224">
@@ -6260,7 +6260,7 @@
         <v>164093795</v>
       </c>
       <c r="F224" t="n">
-        <v>50806482</v>
+        <v>50825189</v>
       </c>
     </row>
     <row r="225">
@@ -6286,7 +6286,7 @@
         <v>254851834</v>
       </c>
       <c r="F225" t="n">
-        <v>2405869</v>
+        <v>2407566</v>
       </c>
     </row>
     <row r="226">
@@ -6312,7 +6312,7 @@
         <v>201069266</v>
       </c>
       <c r="F226" t="n">
-        <v>19582301</v>
+        <v>19584641</v>
       </c>
     </row>
     <row r="227">
@@ -6338,7 +6338,7 @@
         <v>162460184</v>
       </c>
       <c r="F227" t="n">
-        <v>116653</v>
+        <v>116667</v>
       </c>
     </row>
     <row r="228">
@@ -6364,7 +6364,7 @@
         <v>580126554</v>
       </c>
       <c r="F228" t="n">
-        <v>290913066</v>
+        <v>290838234</v>
       </c>
     </row>
     <row r="229">
@@ -6390,7 +6390,7 @@
         <v>160966654</v>
       </c>
       <c r="F229" t="n">
-        <v>975820</v>
+        <v>975908</v>
       </c>
     </row>
     <row r="230">
@@ -6416,7 +6416,7 @@
         <v>159247240</v>
       </c>
       <c r="F230" t="n">
-        <v>179109</v>
+        <v>179130</v>
       </c>
     </row>
     <row r="231">
@@ -6442,7 +6442,7 @@
         <v>159168211</v>
       </c>
       <c r="F231" t="n">
-        <v>8396131</v>
+        <v>8395961</v>
       </c>
     </row>
     <row r="232">
@@ -6468,7 +6468,7 @@
         <v>320491660</v>
       </c>
       <c r="F232" t="n">
-        <v>40958490</v>
+        <v>41036200</v>
       </c>
     </row>
     <row r="233">
@@ -6494,7 +6494,7 @@
         <v>450778298</v>
       </c>
       <c r="F233" t="n">
-        <v>14276730</v>
+        <v>14280174</v>
       </c>
     </row>
     <row r="234">
@@ -6520,7 +6520,7 @@
         <v>677056823</v>
       </c>
       <c r="F234" t="n">
-        <v>66253102</v>
+        <v>66112983</v>
       </c>
     </row>
     <row r="235">
@@ -6572,7 +6572,7 @@
         <v>154811554</v>
       </c>
       <c r="F236" t="n">
-        <v>78101513</v>
+        <v>78212720</v>
       </c>
     </row>
     <row r="237">
@@ -6624,7 +6624,7 @@
         <v>181807414</v>
       </c>
       <c r="F238" t="n">
-        <v>13907853</v>
+        <v>13914013</v>
       </c>
     </row>
     <row r="239">
@@ -6650,7 +6650,7 @@
         <v>152636882</v>
       </c>
       <c r="F239" t="n">
-        <v>11917560</v>
+        <v>11917429</v>
       </c>
     </row>
     <row r="240">
@@ -6676,7 +6676,7 @@
         <v>160068019</v>
       </c>
       <c r="F240" t="n">
-        <v>21604782</v>
+        <v>21637587</v>
       </c>
     </row>
     <row r="241">
@@ -6702,7 +6702,7 @@
         <v>151731158</v>
       </c>
       <c r="F241" t="n">
-        <v>2453914</v>
+        <v>2454466</v>
       </c>
     </row>
     <row r="242">
@@ -6728,7 +6728,7 @@
         <v>525695641</v>
       </c>
       <c r="F242" t="n">
-        <v>33145649</v>
+        <v>33107732</v>
       </c>
     </row>
     <row r="243">
@@ -6754,7 +6754,7 @@
         <v>183908931</v>
       </c>
       <c r="F243" t="n">
-        <v>17070061</v>
+        <v>16988614</v>
       </c>
     </row>
     <row r="244">
@@ -6780,7 +6780,7 @@
         <v>184919477</v>
       </c>
       <c r="F244" t="n">
-        <v>355726</v>
+        <v>355824</v>
       </c>
     </row>
     <row r="245">
@@ -6806,7 +6806,7 @@
         <v>440680359</v>
       </c>
       <c r="F245" t="n">
-        <v>24194209</v>
+        <v>24138064</v>
       </c>
     </row>
     <row r="246">
@@ -6832,7 +6832,7 @@
         <v>148131974</v>
       </c>
       <c r="F246" t="n">
-        <v>2232776</v>
+        <v>2232737</v>
       </c>
     </row>
     <row r="247">
@@ -6858,7 +6858,7 @@
         <v>147875737</v>
       </c>
       <c r="F247" t="n">
-        <v>4609843</v>
+        <v>4611221</v>
       </c>
     </row>
     <row r="248">
@@ -6884,7 +6884,7 @@
         <v>147838484</v>
       </c>
       <c r="F248" t="n">
-        <v>11942329</v>
+        <v>11943458</v>
       </c>
     </row>
     <row r="249">
@@ -6910,7 +6910,7 @@
         <v>147116760</v>
       </c>
       <c r="F249" t="n">
-        <v>7393001</v>
+        <v>7408822</v>
       </c>
     </row>
     <row r="250">
@@ -6936,7 +6936,7 @@
         <v>532221393</v>
       </c>
       <c r="F250" t="n">
-        <v>1557117</v>
+        <v>1552082</v>
       </c>
     </row>
     <row r="251">
@@ -6962,7 +6962,7 @@
         <v>146173309</v>
       </c>
       <c r="F251" t="n">
-        <v>17429556</v>
+        <v>17428446</v>
       </c>
     </row>
     <row r="252">
@@ -6988,7 +6988,7 @@
         <v>146484932</v>
       </c>
       <c r="F252" t="n">
-        <v>1796143</v>
+        <v>1798686</v>
       </c>
     </row>
     <row r="253">
@@ -7014,7 +7014,7 @@
         <v>143882386</v>
       </c>
       <c r="F253" t="n">
-        <v>19565792</v>
+        <v>19550359</v>
       </c>
     </row>
     <row r="254">
@@ -7040,7 +7040,7 @@
         <v>1076439405</v>
       </c>
       <c r="F254" t="n">
-        <v>20478918</v>
+        <v>20480416</v>
       </c>
     </row>
     <row r="255">
@@ -7066,7 +7066,7 @@
         <v>143367807</v>
       </c>
       <c r="F255" t="n">
-        <v>9975664</v>
+        <v>9976855</v>
       </c>
     </row>
     <row r="256">
@@ -7092,7 +7092,7 @@
         <v>143109282</v>
       </c>
       <c r="F256" t="n">
-        <v>13266780</v>
+        <v>13259532</v>
       </c>
     </row>
     <row r="257">
@@ -7118,7 +7118,7 @@
         <v>143060560</v>
       </c>
       <c r="F257" t="n">
-        <v>22839735</v>
+        <v>22871391</v>
       </c>
     </row>
     <row r="258">
@@ -7144,7 +7144,7 @@
         <v>141350257</v>
       </c>
       <c r="F258" t="n">
-        <v>7205110</v>
+        <v>7211114</v>
       </c>
     </row>
     <row r="259">
@@ -7170,7 +7170,7 @@
         <v>180682908</v>
       </c>
       <c r="F259" t="n">
-        <v>5310880</v>
+        <v>5270864</v>
       </c>
     </row>
     <row r="260">
@@ -7196,7 +7196,7 @@
         <v>140500401</v>
       </c>
       <c r="F260" t="n">
-        <v>74541</v>
+        <v>74653</v>
       </c>
     </row>
     <row r="261">
@@ -7222,7 +7222,7 @@
         <v>139998342</v>
       </c>
       <c r="F261" t="n">
-        <v>60849400</v>
+        <v>60866866</v>
       </c>
     </row>
     <row r="262">
@@ -7248,7 +7248,7 @@
         <v>139207892</v>
       </c>
       <c r="F262" t="n">
-        <v>4713185</v>
+        <v>4713594</v>
       </c>
     </row>
     <row r="263">
@@ -7274,7 +7274,7 @@
         <v>215317866</v>
       </c>
       <c r="F263" t="n">
-        <v>16961267</v>
+        <v>16938737</v>
       </c>
     </row>
     <row r="264">
@@ -7300,7 +7300,7 @@
         <v>283532440</v>
       </c>
       <c r="F264" t="n">
-        <v>15917210</v>
+        <v>14740166</v>
       </c>
     </row>
     <row r="265">
@@ -7326,7 +7326,7 @@
         <v>142615990</v>
       </c>
       <c r="F265" t="n">
-        <v>4534046</v>
+        <v>4532155</v>
       </c>
     </row>
     <row r="266">
@@ -7352,7 +7352,7 @@
         <v>176805787</v>
       </c>
       <c r="F266" t="n">
-        <v>2827092</v>
+        <v>3324626</v>
       </c>
     </row>
     <row r="267">
@@ -7378,7 +7378,7 @@
         <v>146496800</v>
       </c>
       <c r="F267" t="n">
-        <v>14356016</v>
+        <v>14358088</v>
       </c>
     </row>
     <row r="268">
@@ -7404,7 +7404,7 @@
         <v>136291596</v>
       </c>
       <c r="F268" t="n">
-        <v>100038104</v>
+        <v>97373985</v>
       </c>
     </row>
     <row r="269">
@@ -7430,7 +7430,7 @@
         <v>135879502</v>
       </c>
       <c r="F269" t="n">
-        <v>68838092</v>
+        <v>68846323</v>
       </c>
     </row>
     <row r="270">
@@ -7456,7 +7456,7 @@
         <v>135961479</v>
       </c>
       <c r="F270" t="n">
-        <v>5780020</v>
+        <v>5693197</v>
       </c>
     </row>
     <row r="271">
@@ -7508,7 +7508,7 @@
         <v>135044167</v>
       </c>
       <c r="F272" t="n">
-        <v>53138568</v>
+        <v>53138754</v>
       </c>
     </row>
     <row r="273">
@@ -7534,7 +7534,7 @@
         <v>631329005</v>
       </c>
       <c r="F273" t="n">
-        <v>24315418</v>
+        <v>24718042</v>
       </c>
     </row>
     <row r="274">
@@ -7560,7 +7560,7 @@
         <v>250215269</v>
       </c>
       <c r="F274" t="n">
-        <v>27157968</v>
+        <v>27172316</v>
       </c>
     </row>
     <row r="275">
@@ -7586,7 +7586,7 @@
         <v>209455674</v>
       </c>
       <c r="F275" t="n">
-        <v>21819088</v>
+        <v>21812195</v>
       </c>
     </row>
     <row r="276">
@@ -7638,7 +7638,7 @@
         <v>132463126</v>
       </c>
       <c r="F277" t="n">
-        <v>2208769</v>
+        <v>2290274</v>
       </c>
     </row>
     <row r="278">
@@ -7664,7 +7664,7 @@
         <v>377513209</v>
       </c>
       <c r="F278" t="n">
-        <v>14778401</v>
+        <v>14780168</v>
       </c>
     </row>
     <row r="279">
@@ -7716,7 +7716,7 @@
         <v>129621225</v>
       </c>
       <c r="F280" t="n">
-        <v>2414476</v>
+        <v>2414764</v>
       </c>
     </row>
     <row r="281">
@@ -7742,7 +7742,7 @@
         <v>141830884</v>
       </c>
       <c r="F281" t="n">
-        <v>8637479</v>
+        <v>8641413</v>
       </c>
     </row>
     <row r="282">
@@ -7768,7 +7768,7 @@
         <v>142712108</v>
       </c>
       <c r="F282" t="n">
-        <v>17383303</v>
+        <v>17334410</v>
       </c>
     </row>
     <row r="283">
@@ -7820,7 +7820,7 @@
         <v>126804554</v>
       </c>
       <c r="F284" t="n">
-        <v>500030</v>
+        <v>500075</v>
       </c>
     </row>
     <row r="285">
@@ -7846,7 +7846,7 @@
         <v>143053274</v>
       </c>
       <c r="F285" t="n">
-        <v>15124982</v>
+        <v>15125473</v>
       </c>
     </row>
     <row r="286">
@@ -7872,7 +7872,7 @@
         <v>123150097</v>
       </c>
       <c r="F286" t="n">
-        <v>7562974</v>
+        <v>7567010</v>
       </c>
     </row>
     <row r="287">
@@ -7898,7 +7898,7 @@
         <v>123082938</v>
       </c>
       <c r="F287" t="n">
-        <v>172576</v>
+        <v>172598</v>
       </c>
     </row>
     <row r="288">
@@ -7924,7 +7924,7 @@
         <v>2033818761</v>
       </c>
       <c r="F288" t="n">
-        <v>6991788</v>
+        <v>6996401</v>
       </c>
     </row>
     <row r="289">
@@ -7950,7 +7950,7 @@
         <v>122204849</v>
       </c>
       <c r="F289" t="n">
-        <v>26815503</v>
+        <v>26822639</v>
       </c>
     </row>
     <row r="290">
@@ -7976,7 +7976,7 @@
         <v>195916230</v>
       </c>
       <c r="F290" t="n">
-        <v>12679246</v>
+        <v>12695428</v>
       </c>
     </row>
     <row r="291">
@@ -8054,7 +8054,7 @@
         <v>651487860</v>
       </c>
       <c r="F293" t="n">
-        <v>32607353</v>
+        <v>32540867</v>
       </c>
     </row>
     <row r="294">
@@ -8080,7 +8080,7 @@
         <v>120209741</v>
       </c>
       <c r="F294" t="n">
-        <v>12048494</v>
+        <v>12040860</v>
       </c>
     </row>
     <row r="295">
@@ -8106,7 +8106,7 @@
         <v>171890934</v>
       </c>
       <c r="F295" t="n">
-        <v>37239857</v>
+        <v>37271192</v>
       </c>
     </row>
     <row r="296">
@@ -8158,7 +8158,7 @@
         <v>281965395</v>
       </c>
       <c r="F297" t="n">
-        <v>34403335</v>
+        <v>34020039</v>
       </c>
     </row>
     <row r="298">
@@ -8184,7 +8184,7 @@
         <v>235581841</v>
       </c>
       <c r="F298" t="n">
-        <v>35588387</v>
+        <v>35616917</v>
       </c>
     </row>
     <row r="299">
@@ -8262,7 +8262,7 @@
         <v>129142104</v>
       </c>
       <c r="F301" t="n">
-        <v>15290304</v>
+        <v>15278354</v>
       </c>
     </row>
     <row r="302">
@@ -8288,7 +8288,7 @@
         <v>115643128</v>
       </c>
       <c r="F302" t="n">
-        <v>18581481</v>
+        <v>18604217</v>
       </c>
     </row>
     <row r="303">
@@ -8314,7 +8314,7 @@
         <v>115471808</v>
       </c>
       <c r="F303" t="n">
-        <v>336729</v>
+        <v>336769</v>
       </c>
     </row>
     <row r="304">
@@ -8340,7 +8340,7 @@
         <v>368289362</v>
       </c>
       <c r="F304" t="n">
-        <v>86316</v>
+        <v>86327</v>
       </c>
     </row>
     <row r="305">
@@ -8366,7 +8366,7 @@
         <v>124147804</v>
       </c>
       <c r="F305" t="n">
-        <v>19396048</v>
+        <v>19399835</v>
       </c>
     </row>
     <row r="306">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
-        <v>9798342</v>
+        <v>6365615</v>
       </c>
     </row>
     <row r="307">
@@ -8416,7 +8416,7 @@
         <v>111943665</v>
       </c>
       <c r="F307" t="n">
-        <v>33678366</v>
+        <v>33682372</v>
       </c>
     </row>
     <row r="308">
@@ -8442,7 +8442,7 @@
         <v>111928759</v>
       </c>
       <c r="F308" t="n">
-        <v>9402009</v>
+        <v>9406101</v>
       </c>
     </row>
     <row r="309">
@@ -8494,7 +8494,7 @@
         <v>132748704</v>
       </c>
       <c r="F310" t="n">
-        <v>3985359</v>
+        <v>3991631</v>
       </c>
     </row>
     <row r="311">
@@ -8520,7 +8520,7 @@
         <v>116888353</v>
       </c>
       <c r="F311" t="n">
-        <v>3417876</v>
+        <v>3417727</v>
       </c>
     </row>
     <row r="312">
@@ -8546,7 +8546,7 @@
         <v>153493900</v>
       </c>
       <c r="F312" t="n">
-        <v>4049241</v>
+        <v>4085788</v>
       </c>
     </row>
     <row r="313">
@@ -8572,7 +8572,7 @@
         <v>111310813</v>
       </c>
       <c r="F313" t="n">
-        <v>14815230</v>
+        <v>14805673</v>
       </c>
     </row>
     <row r="314">
@@ -8598,7 +8598,7 @@
         <v>109514093</v>
       </c>
       <c r="F314" t="n">
-        <v>3686512</v>
+        <v>3683766</v>
       </c>
     </row>
     <row r="315">
@@ -8624,7 +8624,7 @@
         <v>116506472</v>
       </c>
       <c r="F315" t="n">
-        <v>11214234</v>
+        <v>11221822</v>
       </c>
     </row>
     <row r="316">
@@ -8650,7 +8650,7 @@
         <v>119664844</v>
       </c>
       <c r="F316" t="n">
-        <v>4312770</v>
+        <v>4312758</v>
       </c>
     </row>
     <row r="317">
@@ -8676,7 +8676,7 @@
         <v>107769853</v>
       </c>
       <c r="F317" t="n">
-        <v>90793151</v>
+        <v>90685173</v>
       </c>
     </row>
     <row r="318">
@@ -8728,7 +8728,7 @@
         <v>177755487</v>
       </c>
       <c r="F319" t="n">
-        <v>10911447</v>
+        <v>10916077</v>
       </c>
     </row>
     <row r="320">
@@ -8754,7 +8754,7 @@
         <v>107070965</v>
       </c>
       <c r="F320" t="n">
-        <v>2485473</v>
+        <v>2482157</v>
       </c>
     </row>
     <row r="321">
@@ -8780,7 +8780,7 @@
         <v>107800984</v>
       </c>
       <c r="F321" t="n">
-        <v>3594771</v>
+        <v>2573732</v>
       </c>
     </row>
     <row r="322">
@@ -8806,7 +8806,7 @@
         <v>106314418</v>
       </c>
       <c r="F322" t="n">
-        <v>11644540</v>
+        <v>11645848</v>
       </c>
     </row>
     <row r="323">
@@ -8858,7 +8858,7 @@
         <v>135310283</v>
       </c>
       <c r="F324" t="n">
-        <v>25123745</v>
+        <v>25123466</v>
       </c>
     </row>
     <row r="325">
@@ -8884,7 +8884,7 @@
         <v>697611342</v>
       </c>
       <c r="F325" t="n">
-        <v>25222761</v>
+        <v>24849754</v>
       </c>
     </row>
     <row r="326">
@@ -8910,7 +8910,7 @@
         <v>115497037</v>
       </c>
       <c r="F326" t="n">
-        <v>21414451</v>
+        <v>21428335</v>
       </c>
     </row>
     <row r="327">
@@ -8936,7 +8936,7 @@
         <v>151043394</v>
       </c>
       <c r="F327" t="n">
-        <v>5494366</v>
+        <v>5495495</v>
       </c>
     </row>
     <row r="328">
@@ -8988,7 +8988,7 @@
         <v>165131705</v>
       </c>
       <c r="F329" t="n">
-        <v>7902230</v>
+        <v>7903724</v>
       </c>
     </row>
     <row r="330">
@@ -9040,7 +9040,7 @@
         <v>243064721</v>
       </c>
       <c r="F331" t="n">
-        <v>21103471</v>
+        <v>21108059</v>
       </c>
     </row>
     <row r="332">
@@ -9092,7 +9092,7 @@
         <v>145196635</v>
       </c>
       <c r="F333" t="n">
-        <v>17312150</v>
+        <v>17309300</v>
       </c>
     </row>
     <row r="334">
@@ -9118,7 +9118,7 @@
         <v>169190756</v>
       </c>
       <c r="F334" t="n">
-        <v>26771152</v>
+        <v>26720253</v>
       </c>
     </row>
     <row r="335">
@@ -9144,7 +9144,7 @@
         <v>181043918</v>
       </c>
       <c r="F335" t="n">
-        <v>25753419</v>
+        <v>21159523</v>
       </c>
     </row>
     <row r="336">
@@ -9170,7 +9170,7 @@
         <v>100278323</v>
       </c>
       <c r="F336" t="n">
-        <v>9514646</v>
+        <v>9518220</v>
       </c>
     </row>
     <row r="337">
@@ -9196,7 +9196,7 @@
         <v>99954512</v>
       </c>
       <c r="F337" t="n">
-        <v>12548.11</v>
+        <v>12575.26</v>
       </c>
     </row>
     <row r="338">
@@ -9222,7 +9222,7 @@
         <v>513964341</v>
       </c>
       <c r="F338" t="n">
-        <v>5602121</v>
+        <v>5751231</v>
       </c>
     </row>
     <row r="339">
@@ -9248,7 +9248,7 @@
         <v>461091040</v>
       </c>
       <c r="F339" t="n">
-        <v>74691037</v>
+        <v>74683951</v>
       </c>
     </row>
     <row r="340">
@@ -9274,7 +9274,7 @@
         <v>194259158</v>
       </c>
       <c r="F340" t="n">
-        <v>476366</v>
+        <v>476423</v>
       </c>
     </row>
     <row r="341">
@@ -9300,7 +9300,7 @@
         <v>98654396</v>
       </c>
       <c r="F341" t="n">
-        <v>28087047</v>
+        <v>28012497</v>
       </c>
     </row>
     <row r="342">
@@ -9326,7 +9326,7 @@
         <v>98041117</v>
       </c>
       <c r="F342" t="n">
-        <v>121245</v>
+        <v>121260</v>
       </c>
     </row>
     <row r="343">
@@ -9352,7 +9352,7 @@
         <v>114253057</v>
       </c>
       <c r="F343" t="n">
-        <v>60508266</v>
+        <v>60487592</v>
       </c>
     </row>
     <row r="344">
@@ -9378,7 +9378,7 @@
         <v>864520471</v>
       </c>
       <c r="F344" t="n">
-        <v>6511829</v>
+        <v>6513672</v>
       </c>
     </row>
     <row r="345">
@@ -9404,7 +9404,7 @@
         <v>96302931</v>
       </c>
       <c r="F345" t="n">
-        <v>142.01</v>
+        <v>142.02</v>
       </c>
     </row>
     <row r="346">
@@ -9430,7 +9430,7 @@
         <v>96198997</v>
       </c>
       <c r="F346" t="n">
-        <v>55574321</v>
+        <v>55558366</v>
       </c>
     </row>
     <row r="347">
@@ -9456,7 +9456,7 @@
         <v>252537073</v>
       </c>
       <c r="F347" t="n">
-        <v>33929453</v>
+        <v>33821416</v>
       </c>
     </row>
     <row r="348">
@@ -9482,7 +9482,7 @@
         <v>481046050</v>
       </c>
       <c r="F348" t="n">
-        <v>9463705</v>
+        <v>9465290</v>
       </c>
     </row>
     <row r="349">
@@ -9508,7 +9508,7 @@
         <v>100034959</v>
       </c>
       <c r="F349" t="n">
-        <v>1873273</v>
+        <v>1873753</v>
       </c>
     </row>
     <row r="350">
@@ -9534,7 +9534,7 @@
         <v>221912261</v>
       </c>
       <c r="F350" t="n">
-        <v>16584987</v>
+        <v>16586897</v>
       </c>
     </row>
     <row r="351">
@@ -9586,7 +9586,7 @@
         <v>235497581</v>
       </c>
       <c r="F352" t="n">
-        <v>17112472</v>
+        <v>17118749</v>
       </c>
     </row>
     <row r="353">
@@ -9612,7 +9612,7 @@
         <v>163302242</v>
       </c>
       <c r="F353" t="n">
-        <v>8963415</v>
+        <v>8713910</v>
       </c>
     </row>
     <row r="354">
@@ -9638,7 +9638,7 @@
         <v>94457781</v>
       </c>
       <c r="F354" t="n">
-        <v>644383</v>
+        <v>634187</v>
       </c>
     </row>
     <row r="355">
@@ -9664,7 +9664,7 @@
         <v>461846404</v>
       </c>
       <c r="F355" t="n">
-        <v>7756722</v>
+        <v>5198882</v>
       </c>
     </row>
     <row r="356">
@@ -9690,7 +9690,7 @@
         <v>358846754</v>
       </c>
       <c r="F356" t="n">
-        <v>1050927</v>
+        <v>1049864</v>
       </c>
     </row>
     <row r="357">
@@ -9716,7 +9716,7 @@
         <v>250387689</v>
       </c>
       <c r="F357" t="n">
-        <v>934731</v>
+        <v>934310</v>
       </c>
     </row>
     <row r="358">
@@ -9742,7 +9742,7 @@
         <v>336864654</v>
       </c>
       <c r="F358" t="n">
-        <v>19861947</v>
+        <v>19774932</v>
       </c>
     </row>
     <row r="359">
@@ -9768,7 +9768,7 @@
         <v>116358084</v>
       </c>
       <c r="F359" t="n">
-        <v>13625128</v>
+        <v>13596415</v>
       </c>
     </row>
     <row r="360">
@@ -9794,7 +9794,7 @@
         <v>93667407</v>
       </c>
       <c r="F360" t="n">
-        <v>700724</v>
+        <v>700808</v>
       </c>
     </row>
     <row r="361">
@@ -9820,7 +9820,7 @@
         <v>93388549</v>
       </c>
       <c r="F361" t="n">
-        <v>43017</v>
+        <v>41923</v>
       </c>
     </row>
     <row r="362">
@@ -9846,7 +9846,7 @@
         <v>118365016</v>
       </c>
       <c r="F362" t="n">
-        <v>21608395</v>
+        <v>21340411</v>
       </c>
     </row>
     <row r="363">
@@ -9872,7 +9872,7 @@
         <v>298193412</v>
       </c>
       <c r="F363" t="n">
-        <v>20467671</v>
+        <v>20481144</v>
       </c>
     </row>
     <row r="364">
@@ -9898,7 +9898,7 @@
         <v>90876590</v>
       </c>
       <c r="F364" t="n">
-        <v>25772323</v>
+        <v>25771419</v>
       </c>
     </row>
     <row r="365">
@@ -9924,7 +9924,7 @@
         <v>90668965</v>
       </c>
       <c r="F365" t="n">
-        <v>5438819</v>
+        <v>5439414</v>
       </c>
     </row>
     <row r="366">
@@ -9950,7 +9950,7 @@
         <v>92856089</v>
       </c>
       <c r="F366" t="n">
-        <v>5366572</v>
+        <v>5370152</v>
       </c>
     </row>
     <row r="367">
@@ -9976,7 +9976,7 @@
         <v>602721087</v>
       </c>
       <c r="F367" t="n">
-        <v>77831001</v>
+        <v>77938511</v>
       </c>
     </row>
     <row r="368">
@@ -10002,7 +10002,7 @@
         <v>89985563</v>
       </c>
       <c r="F368" t="n">
-        <v>11569065</v>
+        <v>11609015</v>
       </c>
     </row>
     <row r="369">
@@ -10028,7 +10028,7 @@
         <v>169502642</v>
       </c>
       <c r="F369" t="n">
-        <v>11983470</v>
+        <v>11983089</v>
       </c>
     </row>
     <row r="370">
@@ -10054,7 +10054,7 @@
         <v>160657033</v>
       </c>
       <c r="F370" t="n">
-        <v>8306950</v>
+        <v>8205591</v>
       </c>
     </row>
     <row r="371">
@@ -10080,7 +10080,7 @@
         <v>96856266</v>
       </c>
       <c r="F371" t="n">
-        <v>10385188</v>
+        <v>10352676</v>
       </c>
     </row>
     <row r="372">
@@ -10106,7 +10106,7 @@
         <v>233219056</v>
       </c>
       <c r="F372" t="n">
-        <v>9378219</v>
+        <v>9299183</v>
       </c>
     </row>
     <row r="373">
@@ -10132,7 +10132,7 @@
         <v>89071377</v>
       </c>
       <c r="F373" t="n">
-        <v>420355</v>
+        <v>420467</v>
       </c>
     </row>
     <row r="374">
@@ -10158,7 +10158,7 @@
         <v>106503837</v>
       </c>
       <c r="F374" t="n">
-        <v>12543550</v>
+        <v>12547603</v>
       </c>
     </row>
     <row r="375">
@@ -10184,7 +10184,7 @@
         <v>88332259</v>
       </c>
       <c r="F375" t="n">
-        <v>8286.49</v>
+        <v>8287.48</v>
       </c>
     </row>
     <row r="376">
@@ -10210,7 +10210,7 @@
         <v>135832768</v>
       </c>
       <c r="F376" t="n">
-        <v>2239084</v>
+        <v>2239351</v>
       </c>
     </row>
     <row r="377">
@@ -10236,7 +10236,7 @@
         <v>88267898</v>
       </c>
       <c r="F377" t="n">
-        <v>385221</v>
+        <v>376271</v>
       </c>
     </row>
     <row r="378">
@@ -10262,7 +10262,7 @@
         <v>193674705</v>
       </c>
       <c r="F378" t="n">
-        <v>6540754</v>
+        <v>6541941</v>
       </c>
     </row>
     <row r="379">
@@ -10288,7 +10288,7 @@
         <v>1140275801</v>
       </c>
       <c r="F379" t="n">
-        <v>747382</v>
+        <v>747471</v>
       </c>
     </row>
     <row r="380">
@@ -10314,7 +10314,7 @@
         <v>87675534</v>
       </c>
       <c r="F380" t="n">
-        <v>465061</v>
+        <v>465116</v>
       </c>
     </row>
     <row r="381">
@@ -10340,7 +10340,7 @@
         <v>115345689</v>
       </c>
       <c r="F381" t="n">
-        <v>5603831</v>
+        <v>5613520</v>
       </c>
     </row>
     <row r="382">
@@ -10366,7 +10366,7 @@
         <v>397422827</v>
       </c>
       <c r="F382" t="n">
-        <v>31777693</v>
+        <v>31779949</v>
       </c>
     </row>
     <row r="383">
@@ -10392,7 +10392,7 @@
         <v>258939322</v>
       </c>
       <c r="F383" t="n">
-        <v>24931994</v>
+        <v>24921651</v>
       </c>
     </row>
     <row r="384">
@@ -10418,7 +10418,7 @@
         <v>86297310</v>
       </c>
       <c r="F384" t="n">
-        <v>22166</v>
+        <v>22168</v>
       </c>
     </row>
     <row r="385">
@@ -10444,7 +10444,7 @@
         <v>86072313</v>
       </c>
       <c r="F385" t="n">
-        <v>1904648</v>
+        <v>1904585</v>
       </c>
     </row>
     <row r="386">
@@ -10470,7 +10470,7 @@
         <v>96381495</v>
       </c>
       <c r="F386" t="n">
-        <v>8715173</v>
+        <v>8698698</v>
       </c>
     </row>
     <row r="387">
@@ -10496,7 +10496,7 @@
         <v>105021182</v>
       </c>
       <c r="F387" t="n">
-        <v>11093082</v>
+        <v>11084892</v>
       </c>
     </row>
     <row r="388">
@@ -10522,7 +10522,7 @@
         <v>110864363</v>
       </c>
       <c r="F388" t="n">
-        <v>7137266</v>
+        <v>7147519</v>
       </c>
     </row>
     <row r="389">
@@ -10574,7 +10574,7 @@
         <v>102197089</v>
       </c>
       <c r="F390" t="n">
-        <v>110636</v>
+        <v>110649</v>
       </c>
     </row>
     <row r="391">
@@ -10600,7 +10600,7 @@
         <v>103305888</v>
       </c>
       <c r="F391" t="n">
-        <v>5100952</v>
+        <v>5096628</v>
       </c>
     </row>
     <row r="392">
@@ -10626,7 +10626,7 @@
         <v>206929218</v>
       </c>
       <c r="F392" t="n">
-        <v>3675525</v>
+        <v>3675531</v>
       </c>
     </row>
     <row r="393">
@@ -10652,7 +10652,7 @@
         <v>83993517</v>
       </c>
       <c r="F393" t="n">
-        <v>527.04</v>
+        <v>527.1</v>
       </c>
     </row>
     <row r="394">
@@ -10678,7 +10678,7 @@
         <v>83717536</v>
       </c>
       <c r="F394" t="n">
-        <v>11199945</v>
+        <v>11202693</v>
       </c>
     </row>
     <row r="395">
@@ -10704,7 +10704,7 @@
         <v>314731576</v>
       </c>
       <c r="F395" t="n">
-        <v>11105543</v>
+        <v>11105780</v>
       </c>
     </row>
     <row r="396">
@@ -10730,7 +10730,7 @@
         <v>258089233</v>
       </c>
       <c r="F396" t="n">
-        <v>250690</v>
+        <v>250881</v>
       </c>
     </row>
     <row r="397">
@@ -10756,7 +10756,7 @@
         <v>232914875</v>
       </c>
       <c r="F397" t="n">
-        <v>34038344</v>
+        <v>34179451</v>
       </c>
     </row>
     <row r="398">
@@ -10782,7 +10782,7 @@
         <v>87710984</v>
       </c>
       <c r="F398" t="n">
-        <v>1497761</v>
+        <v>1497245</v>
       </c>
     </row>
     <row r="399">
@@ -10808,7 +10808,7 @@
         <v>191941419</v>
       </c>
       <c r="F399" t="n">
-        <v>403490</v>
+        <v>403539</v>
       </c>
     </row>
     <row r="400">
@@ -10834,7 +10834,7 @@
         <v>88121480</v>
       </c>
       <c r="F400" t="n">
-        <v>6644016</v>
+        <v>6654285</v>
       </c>
     </row>
     <row r="401">
@@ -10860,7 +10860,7 @@
         <v>199226196</v>
       </c>
       <c r="F401" t="n">
-        <v>24283489</v>
+        <v>23349867</v>
       </c>
     </row>
     <row r="402">
@@ -10886,7 +10886,7 @@
         <v>80996722</v>
       </c>
       <c r="F402" t="n">
-        <v>861828</v>
+        <v>861931</v>
       </c>
     </row>
     <row r="403">
@@ -10912,7 +10912,7 @@
         <v>85482510</v>
       </c>
       <c r="F403" t="n">
-        <v>360163</v>
+        <v>664711</v>
       </c>
     </row>
     <row r="404">
@@ -10938,7 +10938,7 @@
         <v>151124650</v>
       </c>
       <c r="F404" t="n">
-        <v>27312091</v>
+        <v>27316113</v>
       </c>
     </row>
     <row r="405">
@@ -10964,7 +10964,7 @@
         <v>501136224</v>
       </c>
       <c r="F405" t="n">
-        <v>53784030</v>
+        <v>53803118</v>
       </c>
     </row>
     <row r="406">
@@ -10990,7 +10990,7 @@
         <v>117205381</v>
       </c>
       <c r="F406" t="n">
-        <v>7970362</v>
+        <v>7975088</v>
       </c>
     </row>
     <row r="407">
@@ -11016,7 +11016,7 @@
         <v>100043108</v>
       </c>
       <c r="F407" t="n">
-        <v>21812</v>
+        <v>21814</v>
       </c>
     </row>
     <row r="408">
@@ -11042,7 +11042,7 @@
         <v>79239835</v>
       </c>
       <c r="F408" t="n">
-        <v>2533079</v>
+        <v>2533098</v>
       </c>
     </row>
     <row r="409">
@@ -11068,7 +11068,7 @@
         <v>488283516</v>
       </c>
       <c r="F409" t="n">
-        <v>90558540</v>
+        <v>90681822</v>
       </c>
     </row>
     <row r="410">
@@ -11120,7 +11120,7 @@
         <v>79150209</v>
       </c>
       <c r="F411" t="n">
-        <v>6212002</v>
+        <v>6228167</v>
       </c>
     </row>
     <row r="412">
@@ -11146,7 +11146,7 @@
         <v>78818217</v>
       </c>
       <c r="F412" t="n">
-        <v>2421708</v>
+        <v>2421997</v>
       </c>
     </row>
     <row r="413">
@@ -11172,7 +11172,7 @@
         <v>84453448</v>
       </c>
       <c r="F413" t="n">
-        <v>19628.28</v>
+        <v>19635.34</v>
       </c>
     </row>
     <row r="414">
@@ -11198,7 +11198,7 @@
         <v>97986287</v>
       </c>
       <c r="F414" t="n">
-        <v>12051244</v>
+        <v>12058073</v>
       </c>
     </row>
     <row r="415">
@@ -11224,7 +11224,7 @@
         <v>77950886</v>
       </c>
       <c r="F415" t="n">
-        <v>32346007</v>
+        <v>32356420</v>
       </c>
     </row>
     <row r="416">
@@ -11250,7 +11250,7 @@
         <v>148326472</v>
       </c>
       <c r="F416" t="n">
-        <v>2872635</v>
+        <v>2866680</v>
       </c>
     </row>
     <row r="417">
@@ -11276,7 +11276,7 @@
         <v>85291823</v>
       </c>
       <c r="F417" t="n">
-        <v>1889509</v>
+        <v>1887938</v>
       </c>
     </row>
     <row r="418">
@@ -11302,7 +11302,7 @@
         <v>95658071</v>
       </c>
       <c r="F418" t="n">
-        <v>37297889</v>
+        <v>37301411</v>
       </c>
     </row>
     <row r="419">
@@ -11328,7 +11328,7 @@
         <v>144941605</v>
       </c>
       <c r="F419" t="n">
-        <v>4230229</v>
+        <v>4230955</v>
       </c>
     </row>
     <row r="420">
@@ -11354,7 +11354,7 @@
         <v>76805699</v>
       </c>
       <c r="F420" t="n">
-        <v>196777</v>
+        <v>196800</v>
       </c>
     </row>
     <row r="421">
@@ -11406,7 +11406,7 @@
         <v>76398854</v>
       </c>
       <c r="F422" t="n">
-        <v>9675411</v>
+        <v>10148956</v>
       </c>
     </row>
     <row r="423">
@@ -11432,7 +11432,7 @@
         <v>203580389</v>
       </c>
       <c r="F423" t="n">
-        <v>2855747</v>
+        <v>2855732</v>
       </c>
     </row>
     <row r="424">
@@ -11458,7 +11458,7 @@
         <v>304218655</v>
       </c>
       <c r="F424" t="n">
-        <v>8905509</v>
+        <v>8829072</v>
       </c>
     </row>
     <row r="425">
@@ -11484,7 +11484,7 @@
         <v>90540810</v>
       </c>
       <c r="F425" t="n">
-        <v>388805</v>
+        <v>388823</v>
       </c>
     </row>
     <row r="426">
@@ -11510,7 +11510,7 @@
         <v>84569863</v>
       </c>
       <c r="F426" t="n">
-        <v>1064861</v>
+        <v>1067405</v>
       </c>
     </row>
     <row r="427">
@@ -11536,7 +11536,7 @@
         <v>76102468</v>
       </c>
       <c r="F427" t="n">
-        <v>3574582</v>
+        <v>3564006</v>
       </c>
     </row>
     <row r="428">
@@ -11562,7 +11562,7 @@
         <v>352929133</v>
       </c>
       <c r="F428" t="n">
-        <v>390373</v>
+        <v>391416</v>
       </c>
     </row>
     <row r="429">
@@ -11588,7 +11588,7 @@
         <v>440238474</v>
       </c>
       <c r="F429" t="n">
-        <v>12733855</v>
+        <v>12731856</v>
       </c>
     </row>
     <row r="430">
@@ -11614,7 +11614,7 @@
         <v>194621923</v>
       </c>
       <c r="F430" t="n">
-        <v>527394</v>
+        <v>527531</v>
       </c>
     </row>
     <row r="431">
@@ -11640,7 +11640,7 @@
         <v>423459032</v>
       </c>
       <c r="F431" t="n">
-        <v>115758858</v>
+        <v>115843436</v>
       </c>
     </row>
     <row r="432">
@@ -11666,7 +11666,7 @@
         <v>74435089</v>
       </c>
       <c r="F432" t="n">
-        <v>499722</v>
+        <v>499782</v>
       </c>
     </row>
     <row r="433">
@@ -11718,7 +11718,7 @@
         <v>135086024</v>
       </c>
       <c r="F434" t="n">
-        <v>7415723</v>
+        <v>7446082</v>
       </c>
     </row>
     <row r="435">
@@ -11744,7 +11744,7 @@
         <v>558734128</v>
       </c>
       <c r="F435" t="n">
-        <v>2781834</v>
+        <v>2783773</v>
       </c>
     </row>
     <row r="436">
@@ -11770,7 +11770,7 @@
         <v>75973649</v>
       </c>
       <c r="F436" t="n">
-        <v>24701063</v>
+        <v>24698803</v>
       </c>
     </row>
     <row r="437">
@@ -11796,7 +11796,7 @@
         <v>165502246</v>
       </c>
       <c r="F437" t="n">
-        <v>6074638</v>
+        <v>6075038</v>
       </c>
     </row>
     <row r="438">
@@ -11822,7 +11822,7 @@
         <v>73208114</v>
       </c>
       <c r="F438" t="n">
-        <v>165632</v>
+        <v>165634</v>
       </c>
     </row>
     <row r="439">
@@ -11848,7 +11848,7 @@
         <v>72708542</v>
       </c>
       <c r="F439" t="n">
-        <v>589840</v>
+        <v>589834</v>
       </c>
     </row>
     <row r="440">
@@ -11874,7 +11874,7 @@
         <v>92342898</v>
       </c>
       <c r="F440" t="n">
-        <v>7725388</v>
+        <v>7688843</v>
       </c>
     </row>
     <row r="441">
@@ -11900,7 +11900,7 @@
         <v>88978304</v>
       </c>
       <c r="F441" t="n">
-        <v>1290829</v>
+        <v>1290865</v>
       </c>
     </row>
     <row r="442">
@@ -11926,7 +11926,7 @@
         <v>87984305</v>
       </c>
       <c r="F442" t="n">
-        <v>1357024</v>
+        <v>1357296</v>
       </c>
     </row>
     <row r="443">
@@ -11952,7 +11952,7 @@
         <v>71628174</v>
       </c>
       <c r="F443" t="n">
-        <v>8496968</v>
+        <v>6695343</v>
       </c>
     </row>
     <row r="444">
@@ -11978,7 +11978,7 @@
         <v>71416054</v>
       </c>
       <c r="F444" t="n">
-        <v>8400795</v>
+        <v>8400753</v>
       </c>
     </row>
     <row r="445">
@@ -12004,7 +12004,7 @@
         <v>71052164</v>
       </c>
       <c r="F445" t="n">
-        <v>20023166</v>
+        <v>20016298</v>
       </c>
     </row>
     <row r="446">
@@ -12030,7 +12030,7 @@
         <v>70919630</v>
       </c>
       <c r="F446" t="n">
-        <v>37831624</v>
+        <v>11543591</v>
       </c>
     </row>
     <row r="447">
@@ -12056,7 +12056,7 @@
         <v>262636479</v>
       </c>
       <c r="F447" t="n">
-        <v>48166089</v>
+        <v>48182808</v>
       </c>
     </row>
     <row r="448">
@@ -12108,7 +12108,7 @@
         <v>663372417</v>
       </c>
       <c r="F449" t="n">
-        <v>14316431</v>
+        <v>14343542</v>
       </c>
     </row>
     <row r="450">
@@ -12134,7 +12134,7 @@
         <v>102953315</v>
       </c>
       <c r="F450" t="n">
-        <v>34088091</v>
+        <v>34101438</v>
       </c>
     </row>
     <row r="451">
@@ -12160,7 +12160,7 @@
         <v>73123692</v>
       </c>
       <c r="F451" t="n">
-        <v>6193845</v>
+        <v>6194674</v>
       </c>
     </row>
     <row r="452">
@@ -12186,7 +12186,7 @@
         <v>87255313</v>
       </c>
       <c r="F452" t="n">
-        <v>108085881</v>
+        <v>108006328</v>
       </c>
     </row>
     <row r="453">
@@ -12212,7 +12212,7 @@
         <v>83671260</v>
       </c>
       <c r="F453" t="n">
-        <v>1588554</v>
+        <v>1588744</v>
       </c>
     </row>
     <row r="454">
@@ -12238,7 +12238,7 @@
         <v>104965948</v>
       </c>
       <c r="F454" t="n">
-        <v>37489</v>
+        <v>37513</v>
       </c>
     </row>
     <row r="455">
@@ -12264,7 +12264,7 @@
         <v>137087973</v>
       </c>
       <c r="F455" t="n">
-        <v>13852.11</v>
+        <v>13860.47</v>
       </c>
     </row>
     <row r="456">
@@ -12290,7 +12290,7 @@
         <v>71218395</v>
       </c>
       <c r="F456" t="n">
-        <v>23005842</v>
+        <v>23005388</v>
       </c>
     </row>
     <row r="457">
@@ -12316,7 +12316,7 @@
         <v>68841976</v>
       </c>
       <c r="F457" t="n">
-        <v>7606722</v>
+        <v>7586727</v>
       </c>
     </row>
     <row r="458">
@@ -12342,7 +12342,7 @@
         <v>78723147</v>
       </c>
       <c r="F458" t="n">
-        <v>1436045</v>
+        <v>1435557</v>
       </c>
     </row>
     <row r="459">
@@ -12368,7 +12368,7 @@
         <v>92479344</v>
       </c>
       <c r="F459" t="n">
-        <v>25095174</v>
+        <v>25070751</v>
       </c>
     </row>
     <row r="460">
@@ -12420,7 +12420,7 @@
         <v>503917906</v>
       </c>
       <c r="F461" t="n">
-        <v>9579646</v>
+        <v>9582168</v>
       </c>
     </row>
     <row r="462">
@@ -12446,7 +12446,7 @@
         <v>84700255</v>
       </c>
       <c r="F462" t="n">
-        <v>14978141</v>
+        <v>14952470</v>
       </c>
     </row>
     <row r="463">
@@ -12472,7 +12472,7 @@
         <v>111442950</v>
       </c>
       <c r="F463" t="n">
-        <v>4262825</v>
+        <v>4263770</v>
       </c>
     </row>
     <row r="464">
@@ -12498,7 +12498,7 @@
         <v>71871937</v>
       </c>
       <c r="F464" t="n">
-        <v>16723421</v>
+        <v>16687486</v>
       </c>
     </row>
     <row r="465">
@@ -12524,7 +12524,7 @@
         <v>214836397</v>
       </c>
       <c r="F465" t="n">
-        <v>1856949</v>
+        <v>1857179</v>
       </c>
     </row>
     <row r="466">
@@ -12550,7 +12550,7 @@
         <v>95485040</v>
       </c>
       <c r="F466" t="n">
-        <v>6035962</v>
+        <v>6034002</v>
       </c>
     </row>
     <row r="467">
@@ -12602,7 +12602,7 @@
         <v>810663693</v>
       </c>
       <c r="F468" t="n">
-        <v>712963</v>
+        <v>697786</v>
       </c>
     </row>
     <row r="469">
@@ -12628,7 +12628,7 @@
         <v>67005429</v>
       </c>
       <c r="F469" t="n">
-        <v>2333.84</v>
+        <v>2334.12</v>
       </c>
     </row>
     <row r="470">
@@ -12654,7 +12654,7 @@
         <v>89056141</v>
       </c>
       <c r="F470" t="n">
-        <v>6376007</v>
+        <v>6412285</v>
       </c>
     </row>
     <row r="471">
@@ -12680,7 +12680,7 @@
         <v>82880211</v>
       </c>
       <c r="F471" t="n">
-        <v>1794774</v>
+        <v>1786346</v>
       </c>
     </row>
     <row r="472">
@@ -12706,7 +12706,7 @@
         <v>348333317</v>
       </c>
       <c r="F472" t="n">
-        <v>17635615</v>
+        <v>15688570</v>
       </c>
     </row>
     <row r="473">
@@ -12758,7 +12758,7 @@
         <v>65705369</v>
       </c>
       <c r="F474" t="n">
-        <v>7686435</v>
+        <v>7692436</v>
       </c>
     </row>
     <row r="475">
@@ -12784,7 +12784,7 @@
         <v>65460373</v>
       </c>
       <c r="F475" t="n">
-        <v>983468</v>
+        <v>983775</v>
       </c>
     </row>
     <row r="476">
@@ -12810,7 +12810,7 @@
         <v>165129671</v>
       </c>
       <c r="F476" t="n">
-        <v>5540551</v>
+        <v>5541215</v>
       </c>
     </row>
     <row r="477">
@@ -12836,7 +12836,7 @@
         <v>65399061</v>
       </c>
       <c r="F477" t="n">
-        <v>16503380</v>
+        <v>16616244</v>
       </c>
     </row>
     <row r="478">
@@ -12862,7 +12862,7 @@
         <v>95077024</v>
       </c>
       <c r="F478" t="n">
-        <v>17067824</v>
+        <v>17076112</v>
       </c>
     </row>
     <row r="479">
@@ -12888,7 +12888,7 @@
         <v>70162263</v>
       </c>
       <c r="F479" t="n">
-        <v>211753</v>
+        <v>211811</v>
       </c>
     </row>
     <row r="480">
@@ -12914,7 +12914,7 @@
         <v>64309782</v>
       </c>
       <c r="F480" t="n">
-        <v>138104</v>
+        <v>138120</v>
       </c>
     </row>
     <row r="481">
@@ -12940,7 +12940,7 @@
         <v>70496906</v>
       </c>
       <c r="F481" t="n">
-        <v>1369653</v>
+        <v>1366385</v>
       </c>
     </row>
     <row r="482">
@@ -12966,7 +12966,7 @@
         <v>119431213</v>
       </c>
       <c r="F482" t="n">
-        <v>2103746</v>
+        <v>2103907</v>
       </c>
     </row>
     <row r="483">
@@ -12992,7 +12992,7 @@
         <v>77886758</v>
       </c>
       <c r="F483" t="n">
-        <v>474714</v>
+        <v>474731</v>
       </c>
     </row>
     <row r="484">
@@ -13044,7 +13044,7 @@
         <v>63537294</v>
       </c>
       <c r="F485" t="n">
-        <v>98570</v>
+        <v>98585</v>
       </c>
     </row>
     <row r="486">
@@ -13070,7 +13070,7 @@
         <v>70466812</v>
       </c>
       <c r="F486" t="n">
-        <v>31650021</v>
+        <v>31652208</v>
       </c>
     </row>
     <row r="487">
@@ -13096,7 +13096,7 @@
         <v>63387472</v>
       </c>
       <c r="F487" t="n">
-        <v>233021</v>
+        <v>233305</v>
       </c>
     </row>
     <row r="488">
@@ -13122,7 +13122,7 @@
         <v>95881087</v>
       </c>
       <c r="F488" t="n">
-        <v>13279559</v>
+        <v>13281115</v>
       </c>
     </row>
     <row r="489">
@@ -13148,7 +13148,7 @@
         <v>67801460</v>
       </c>
       <c r="F489" t="n">
-        <v>385712</v>
+        <v>385716</v>
       </c>
     </row>
     <row r="490">
@@ -13200,7 +13200,7 @@
         <v>62649213</v>
       </c>
       <c r="F491" t="n">
-        <v>7263575</v>
+        <v>7262160</v>
       </c>
     </row>
     <row r="492">
@@ -13226,7 +13226,7 @@
         <v>71845868</v>
       </c>
       <c r="F492" t="n">
-        <v>8198427</v>
+        <v>7965716</v>
       </c>
     </row>
     <row r="493">
@@ -13252,7 +13252,7 @@
         <v>61262555</v>
       </c>
       <c r="F493" t="n">
-        <v>740942</v>
+        <v>1408616</v>
       </c>
     </row>
     <row r="494">
@@ -13278,7 +13278,7 @@
         <v>336816655</v>
       </c>
       <c r="F494" t="n">
-        <v>31337463</v>
+        <v>31333149</v>
       </c>
     </row>
     <row r="495">
@@ -13304,7 +13304,7 @@
         <v>131656651</v>
       </c>
       <c r="F495" t="n">
-        <v>846868</v>
+        <v>846888</v>
       </c>
     </row>
     <row r="496">
@@ -13356,7 +13356,7 @@
         <v>176237606</v>
       </c>
       <c r="F497" t="n">
-        <v>406498</v>
+        <v>404450</v>
       </c>
     </row>
     <row r="498">
@@ -13382,7 +13382,7 @@
         <v>60163884</v>
       </c>
       <c r="F498" t="n">
-        <v>2212513</v>
+        <v>2212076</v>
       </c>
     </row>
     <row r="499">
@@ -13408,7 +13408,7 @@
         <v>60048149</v>
       </c>
       <c r="F499" t="n">
-        <v>1060424</v>
+        <v>1060551</v>
       </c>
     </row>
     <row r="500">
@@ -13434,7 +13434,7 @@
         <v>299721731</v>
       </c>
       <c r="F500" t="n">
-        <v>7619094</v>
+        <v>7620948</v>
       </c>
     </row>
     <row r="501">
@@ -13460,7 +13460,7 @@
         <v>60073036</v>
       </c>
       <c r="F501" t="n">
-        <v>100479</v>
+        <v>100491</v>
       </c>
     </row>
   </sheetData>
